--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Bmp4-Rgmb.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Bmp4-Rgmb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Bmp4</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.607883391273059</v>
+        <v>8.675694999999999</v>
       </c>
       <c r="H2">
-        <v>8.607883391273059</v>
+        <v>26.027085</v>
       </c>
       <c r="I2">
-        <v>0.5782606091195124</v>
+        <v>0.5592117158070719</v>
       </c>
       <c r="J2">
-        <v>0.5782606091195124</v>
+        <v>0.5592117158070719</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.96921174666234</v>
+        <v>9.012447999999999</v>
       </c>
       <c r="N2">
-        <v>8.96921174666234</v>
+        <v>27.037344</v>
       </c>
       <c r="O2">
-        <v>0.2990360678906331</v>
+        <v>0.2887266436017198</v>
       </c>
       <c r="P2">
-        <v>0.2990360678906331</v>
+        <v>0.2887266436017197</v>
       </c>
       <c r="Q2">
-        <v>77.20592882690599</v>
+        <v>78.18925005135999</v>
       </c>
       <c r="R2">
-        <v>77.20592882690599</v>
+        <v>703.7032504622399</v>
       </c>
       <c r="S2">
-        <v>0.1729207787671414</v>
+        <v>0.1614593217677346</v>
       </c>
       <c r="T2">
-        <v>0.1729207787671414</v>
+        <v>0.1614593217677346</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.607883391273059</v>
+        <v>8.675694999999999</v>
       </c>
       <c r="H3">
-        <v>8.607883391273059</v>
+        <v>26.027085</v>
       </c>
       <c r="I3">
-        <v>0.5782606091195124</v>
+        <v>0.5592117158070719</v>
       </c>
       <c r="J3">
-        <v>0.5782606091195124</v>
+        <v>0.5592117158070719</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.32643172565788</v>
+        <v>9.682916000000001</v>
       </c>
       <c r="N3">
-        <v>9.32643172565788</v>
+        <v>29.048748</v>
       </c>
       <c r="O3">
-        <v>0.3109458834806766</v>
+        <v>0.3102060435696706</v>
       </c>
       <c r="P3">
-        <v>0.3109458834806766</v>
+        <v>0.3102060435696705</v>
       </c>
       <c r="Q3">
-        <v>80.2808367511326</v>
+        <v>84.00602592662</v>
       </c>
       <c r="R3">
-        <v>80.2808367511326</v>
+        <v>756.05423333958</v>
       </c>
       <c r="S3">
-        <v>0.179807755984741</v>
+        <v>0.1734708538783188</v>
       </c>
       <c r="T3">
-        <v>0.179807755984741</v>
+        <v>0.1734708538783187</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.607883391273059</v>
+        <v>8.675694999999999</v>
       </c>
       <c r="H4">
-        <v>8.607883391273059</v>
+        <v>26.027085</v>
       </c>
       <c r="I4">
-        <v>0.5782606091195124</v>
+        <v>0.5592117158070719</v>
       </c>
       <c r="J4">
-        <v>0.5782606091195124</v>
+        <v>0.5592117158070719</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.95516037752988</v>
+        <v>3.223096</v>
       </c>
       <c r="N4">
-        <v>2.95516037752988</v>
+        <v>9.669288</v>
       </c>
       <c r="O4">
-        <v>0.09852588658212692</v>
+        <v>0.1032564837085472</v>
       </c>
       <c r="P4">
-        <v>0.09852588658212692</v>
+        <v>0.1032564837085472</v>
       </c>
       <c r="Q4">
-        <v>25.43767593228768</v>
+        <v>27.96259785172</v>
       </c>
       <c r="R4">
-        <v>25.43767593228768</v>
+        <v>251.66338066548</v>
       </c>
       <c r="S4">
-        <v>0.05697363918902071</v>
+        <v>0.05774223542286164</v>
       </c>
       <c r="T4">
-        <v>0.05697363918902071</v>
+        <v>0.05774223542286162</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.607883391273059</v>
+        <v>8.675694999999999</v>
       </c>
       <c r="H5">
-        <v>8.607883391273059</v>
+        <v>26.027085</v>
       </c>
       <c r="I5">
-        <v>0.5782606091195124</v>
+        <v>0.5592117158070719</v>
       </c>
       <c r="J5">
-        <v>0.5782606091195124</v>
+        <v>0.5592117158070719</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.0651707848944</v>
+        <v>3.120218333333334</v>
       </c>
       <c r="N5">
-        <v>3.0651707848944</v>
+        <v>9.360655000000001</v>
       </c>
       <c r="O5">
-        <v>0.1021936648188905</v>
+        <v>0.09996065072307608</v>
       </c>
       <c r="P5">
-        <v>0.1021936648188905</v>
+        <v>0.09996065072307606</v>
       </c>
       <c r="Q5">
-        <v>26.38463269070791</v>
+        <v>27.07006259340833</v>
       </c>
       <c r="R5">
-        <v>26.38463269070791</v>
+        <v>243.630563340675</v>
       </c>
       <c r="S5">
-        <v>0.05909457086632693</v>
+        <v>0.05589916700404279</v>
       </c>
       <c r="T5">
-        <v>0.05909457086632693</v>
+        <v>0.05589916700404278</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.607883391273059</v>
+        <v>8.675694999999999</v>
       </c>
       <c r="H6">
-        <v>8.607883391273059</v>
+        <v>26.027085</v>
       </c>
       <c r="I6">
-        <v>0.5782606091195124</v>
+        <v>0.5592117158070719</v>
       </c>
       <c r="J6">
-        <v>0.5782606091195124</v>
+        <v>0.5592117158070719</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.67777096902214</v>
+        <v>6.175787666666667</v>
       </c>
       <c r="N6">
-        <v>5.67777096902214</v>
+        <v>18.527363</v>
       </c>
       <c r="O6">
-        <v>0.1892984972276727</v>
+        <v>0.1978501783969864</v>
       </c>
       <c r="P6">
-        <v>0.1892984972276727</v>
+        <v>0.1978501783969864</v>
       </c>
       <c r="Q6">
-        <v>48.87359042369802</v>
+        <v>53.57925018076167</v>
       </c>
       <c r="R6">
-        <v>48.87359042369802</v>
+        <v>482.213251626855</v>
       </c>
       <c r="S6">
-        <v>0.1094638643122823</v>
+        <v>0.110640137734114</v>
       </c>
       <c r="T6">
-        <v>0.1094638643122823</v>
+        <v>0.110640137734114</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.27793669662786</v>
+        <v>6.316050666666666</v>
       </c>
       <c r="H7">
-        <v>6.27793669662786</v>
+        <v>18.948152</v>
       </c>
       <c r="I7">
-        <v>0.4217393908804876</v>
+        <v>0.407115456505913</v>
       </c>
       <c r="J7">
-        <v>0.4217393908804876</v>
+        <v>0.407115456505913</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.96921174666234</v>
+        <v>9.012447999999999</v>
       </c>
       <c r="N7">
-        <v>8.96921174666234</v>
+        <v>27.037344</v>
       </c>
       <c r="O7">
-        <v>0.2990360678906331</v>
+        <v>0.2887266436017198</v>
       </c>
       <c r="P7">
-        <v>0.2990360678906331</v>
+        <v>0.2887266436017197</v>
       </c>
       <c r="Q7">
-        <v>56.30814356419717</v>
+        <v>56.92307819869866</v>
       </c>
       <c r="R7">
-        <v>56.30814356419717</v>
+        <v>512.307703788288</v>
       </c>
       <c r="S7">
-        <v>0.1261152891234917</v>
+        <v>0.1175450793153342</v>
       </c>
       <c r="T7">
-        <v>0.1261152891234917</v>
+        <v>0.1175450793153341</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.27793669662786</v>
+        <v>6.316050666666666</v>
       </c>
       <c r="H8">
-        <v>6.27793669662786</v>
+        <v>18.948152</v>
       </c>
       <c r="I8">
-        <v>0.4217393908804876</v>
+        <v>0.407115456505913</v>
       </c>
       <c r="J8">
-        <v>0.4217393908804876</v>
+        <v>0.407115456505913</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.32643172565788</v>
+        <v>9.682916000000001</v>
       </c>
       <c r="N8">
-        <v>9.32643172565788</v>
+        <v>29.048748</v>
       </c>
       <c r="O8">
-        <v>0.3109458834806766</v>
+        <v>0.3102060435696706</v>
       </c>
       <c r="P8">
-        <v>0.3109458834806766</v>
+        <v>0.3102060435696705</v>
       </c>
       <c r="Q8">
-        <v>58.5507479791019</v>
+        <v>61.15778805707733</v>
       </c>
       <c r="R8">
-        <v>58.5507479791019</v>
+        <v>550.4200925136961</v>
       </c>
       <c r="S8">
-        <v>0.1311381274959356</v>
+        <v>0.1262896750387596</v>
       </c>
       <c r="T8">
-        <v>0.1311381274959356</v>
+        <v>0.1262896750387595</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.27793669662786</v>
+        <v>6.316050666666666</v>
       </c>
       <c r="H9">
-        <v>6.27793669662786</v>
+        <v>18.948152</v>
       </c>
       <c r="I9">
-        <v>0.4217393908804876</v>
+        <v>0.407115456505913</v>
       </c>
       <c r="J9">
-        <v>0.4217393908804876</v>
+        <v>0.407115456505913</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.95516037752988</v>
+        <v>3.223096</v>
       </c>
       <c r="N9">
-        <v>2.95516037752988</v>
+        <v>9.669288</v>
       </c>
       <c r="O9">
-        <v>0.09852588658212692</v>
+        <v>0.1032564837085472</v>
       </c>
       <c r="P9">
-        <v>0.09852588658212692</v>
+        <v>0.1032564837085472</v>
       </c>
       <c r="Q9">
-        <v>18.55230977851548</v>
+        <v>20.35723763953067</v>
       </c>
       <c r="R9">
-        <v>18.55230977851548</v>
+        <v>183.215138755776</v>
       </c>
       <c r="S9">
-        <v>0.04155224739310621</v>
+        <v>0.04203731050220055</v>
       </c>
       <c r="T9">
-        <v>0.04155224739310621</v>
+        <v>0.04203731050220054</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.27793669662786</v>
+        <v>6.316050666666666</v>
       </c>
       <c r="H10">
-        <v>6.27793669662786</v>
+        <v>18.948152</v>
       </c>
       <c r="I10">
-        <v>0.4217393908804876</v>
+        <v>0.407115456505913</v>
       </c>
       <c r="J10">
-        <v>0.4217393908804876</v>
+        <v>0.407115456505913</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.0651707848944</v>
+        <v>3.120218333333334</v>
       </c>
       <c r="N10">
-        <v>3.0651707848944</v>
+        <v>9.360655000000001</v>
       </c>
       <c r="O10">
-        <v>0.1021936648188905</v>
+        <v>0.09996065072307608</v>
       </c>
       <c r="P10">
-        <v>0.1021936648188905</v>
+        <v>0.09996065072307606</v>
       </c>
       <c r="Q10">
-        <v>19.24294815192017</v>
+        <v>19.70745708439556</v>
       </c>
       <c r="R10">
-        <v>19.24294815192017</v>
+        <v>177.36711375956</v>
       </c>
       <c r="S10">
-        <v>0.04309909395256361</v>
+        <v>0.04069552595175324</v>
       </c>
       <c r="T10">
-        <v>0.04309909395256361</v>
+        <v>0.04069552595175323</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,371 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>6.316050666666666</v>
+      </c>
+      <c r="H11">
+        <v>18.948152</v>
+      </c>
+      <c r="I11">
+        <v>0.407115456505913</v>
+      </c>
+      <c r="J11">
+        <v>0.407115456505913</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>6.175787666666667</v>
+      </c>
+      <c r="N11">
+        <v>18.527363</v>
+      </c>
+      <c r="O11">
+        <v>0.1978501783969864</v>
+      </c>
+      <c r="P11">
+        <v>0.1978501783969864</v>
+      </c>
+      <c r="Q11">
+        <v>39.00658780924178</v>
+      </c>
+      <c r="R11">
+        <v>351.059290283176</v>
+      </c>
+      <c r="S11">
+        <v>0.08054786569786546</v>
+      </c>
+      <c r="T11">
+        <v>0.08054786569786543</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.5224053333333334</v>
+      </c>
+      <c r="H12">
+        <v>1.567216</v>
+      </c>
+      <c r="I12">
+        <v>0.03367282768701513</v>
+      </c>
+      <c r="J12">
+        <v>0.03367282768701512</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>9.012447999999999</v>
+      </c>
+      <c r="N12">
+        <v>27.037344</v>
+      </c>
+      <c r="O12">
+        <v>0.2887266436017198</v>
+      </c>
+      <c r="P12">
+        <v>0.2887266436017197</v>
+      </c>
+      <c r="Q12">
+        <v>4.708150901589334</v>
+      </c>
+      <c r="R12">
+        <v>42.373358114304</v>
+      </c>
+      <c r="S12">
+        <v>0.009722242518650939</v>
+      </c>
+      <c r="T12">
+        <v>0.009722242518650934</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.5224053333333334</v>
+      </c>
+      <c r="H13">
+        <v>1.567216</v>
+      </c>
+      <c r="I13">
+        <v>0.03367282768701513</v>
+      </c>
+      <c r="J13">
+        <v>0.03367282768701512</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>9.682916000000001</v>
+      </c>
+      <c r="N13">
+        <v>29.048748</v>
+      </c>
+      <c r="O13">
+        <v>0.3102060435696706</v>
+      </c>
+      <c r="P13">
+        <v>0.3102060435696705</v>
+      </c>
+      <c r="Q13">
+        <v>5.058406960618668</v>
+      </c>
+      <c r="R13">
+        <v>45.52566264556801</v>
+      </c>
+      <c r="S13">
+        <v>0.01044551465259222</v>
+      </c>
+      <c r="T13">
+        <v>0.01044551465259222</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.5224053333333334</v>
+      </c>
+      <c r="H14">
+        <v>1.567216</v>
+      </c>
+      <c r="I14">
+        <v>0.03367282768701513</v>
+      </c>
+      <c r="J14">
+        <v>0.03367282768701512</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>3.223096</v>
+      </c>
+      <c r="N14">
+        <v>9.669288</v>
+      </c>
+      <c r="O14">
+        <v>0.1032564837085472</v>
+      </c>
+      <c r="P14">
+        <v>0.1032564837085472</v>
+      </c>
+      <c r="Q14">
+        <v>1.683762540245334</v>
+      </c>
+      <c r="R14">
+        <v>15.153862862208</v>
+      </c>
+      <c r="S14">
+        <v>0.003476937783484994</v>
+      </c>
+      <c r="T14">
+        <v>0.003476937783484992</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
         <v>26</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>6.27793669662786</v>
-      </c>
-      <c r="H11">
-        <v>6.27793669662786</v>
-      </c>
-      <c r="I11">
-        <v>0.4217393908804876</v>
-      </c>
-      <c r="J11">
-        <v>0.4217393908804876</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>5.67777096902214</v>
-      </c>
-      <c r="N11">
-        <v>5.67777096902214</v>
-      </c>
-      <c r="O11">
-        <v>0.1892984972276727</v>
-      </c>
-      <c r="P11">
-        <v>0.1892984972276727</v>
-      </c>
-      <c r="Q11">
-        <v>35.64468672147241</v>
-      </c>
-      <c r="R11">
-        <v>35.64468672147241</v>
-      </c>
-      <c r="S11">
-        <v>0.07983463291539035</v>
-      </c>
-      <c r="T11">
-        <v>0.07983463291539035</v>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.5224053333333334</v>
+      </c>
+      <c r="H15">
+        <v>1.567216</v>
+      </c>
+      <c r="I15">
+        <v>0.03367282768701513</v>
+      </c>
+      <c r="J15">
+        <v>0.03367282768701512</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>3.120218333333334</v>
+      </c>
+      <c r="N15">
+        <v>9.360655000000001</v>
+      </c>
+      <c r="O15">
+        <v>0.09996065072307608</v>
+      </c>
+      <c r="P15">
+        <v>0.09996065072307606</v>
+      </c>
+      <c r="Q15">
+        <v>1.630018698497778</v>
+      </c>
+      <c r="R15">
+        <v>14.67016828648</v>
+      </c>
+      <c r="S15">
+        <v>0.003365957767280045</v>
+      </c>
+      <c r="T15">
+        <v>0.003365957767280043</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.5224053333333334</v>
+      </c>
+      <c r="H16">
+        <v>1.567216</v>
+      </c>
+      <c r="I16">
+        <v>0.03367282768701513</v>
+      </c>
+      <c r="J16">
+        <v>0.03367282768701512</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>6.175787666666667</v>
+      </c>
+      <c r="N16">
+        <v>18.527363</v>
+      </c>
+      <c r="O16">
+        <v>0.1978501783969864</v>
+      </c>
+      <c r="P16">
+        <v>0.1978501783969864</v>
+      </c>
+      <c r="Q16">
+        <v>3.22626441460089</v>
+      </c>
+      <c r="R16">
+        <v>29.036379731408</v>
+      </c>
+      <c r="S16">
+        <v>0.006662174965006927</v>
+      </c>
+      <c r="T16">
+        <v>0.006662174965006924</v>
       </c>
     </row>
   </sheetData>
